--- a/Documentación/PREGAME/1. ELICITACION/1.6 Backlog/7185_G2_Basantes_Orellana_Lopez_Backlog-Sprint1_v1.0.xlsx
+++ b/Documentación/PREGAME/1. ELICITACION/1.6 Backlog/7185_G2_Basantes_Orellana_Lopez_Backlog-Sprint1_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejo\Desktop\A y D\7185_G2\Documentación\PREGAME\1. ELICITACION\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF1EF9A-97EA-499B-A1E8-7183FE4345AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1975F7D5-7AA8-4178-B7A4-AC9B41364769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1094,6 +1094,41 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1112,44 +1147,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5480,7 +5480,7 @@
       <pane xSplit="7" ySplit="9" topLeftCell="H16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5861,7 +5861,7 @@
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="102" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="70"/>
@@ -5954,11 +5954,11 @@
       </c>
     </row>
     <row r="7" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="103" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="70"/>
-      <c r="G7" s="85"/>
+      <c r="G7" s="104"/>
       <c r="H7" s="37">
         <f t="shared" ref="H7:M7" si="2">SUM(H9:H1001)</f>
         <v>3</v>
@@ -6047,24 +6047,24 @@
       </c>
     </row>
     <row r="8" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="89" t="s">
+      <c r="B8" s="106"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="91"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="110"/>
       <c r="O8" s="39"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="39"/>
@@ -6079,12 +6079,12 @@
       <c r="Z8" s="39"/>
       <c r="AA8" s="39"/>
       <c r="AB8" s="39"/>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="91"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="109"/>
+      <c r="AF8" s="109"/>
+      <c r="AG8" s="109"/>
+      <c r="AH8" s="110"/>
       <c r="AI8" s="39"/>
       <c r="AJ8" s="39"/>
       <c r="AK8" s="39"/>
@@ -6129,11 +6129,11 @@
       <c r="A9" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="95"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="113"/>
       <c r="E9" s="40" t="s">
         <v>31</v>
       </c>
@@ -6143,13 +6143,13 @@
       <c r="G9" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="94"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
@@ -6164,12 +6164,12 @@
       <c r="Z9" s="39"/>
       <c r="AA9" s="39"/>
       <c r="AB9" s="39"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="94"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="112"/>
       <c r="AI9" s="39"/>
       <c r="AJ9" s="39"/>
       <c r="AK9" s="39"/>
@@ -6212,11 +6212,11 @@
     </row>
     <row r="10" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41"/>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="98"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="41" t="s">
         <v>21</v>
       </c>
@@ -6297,11 +6297,11 @@
     </row>
     <row r="11" spans="1:64" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" s="41"/>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="98"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="41" t="s">
         <v>21</v>
       </c>
@@ -6384,11 +6384,11 @@
       <c r="A12" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="41" t="s">
         <v>17</v>
       </c>
@@ -6460,11 +6460,11 @@
     </row>
     <row r="13" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="41"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="41" t="s">
         <v>14</v>
       </c>
@@ -6623,11 +6623,11 @@
     </row>
     <row r="15" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="41" t="s">
         <v>21</v>
       </c>
@@ -6708,11 +6708,11 @@
     </row>
     <row r="16" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="41" t="s">
         <v>21</v>
       </c>
@@ -6792,11 +6792,11 @@
       </c>
     </row>
     <row r="17" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="41" t="s">
         <v>14</v>
       </c>
@@ -6879,11 +6879,11 @@
       <c r="A18" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="41" t="s">
         <v>17</v>
       </c>
@@ -6964,11 +6964,11 @@
     </row>
     <row r="19" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="41"/>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="51" t="s">
         <v>17</v>
       </c>
@@ -7040,11 +7040,11 @@
     </row>
     <row r="20" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="41"/>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="98"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="41" t="s">
         <v>14</v>
       </c>
@@ -7116,11 +7116,11 @@
     </row>
     <row r="21" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="98"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="41" t="s">
         <v>14</v>
       </c>
@@ -7192,11 +7192,11 @@
     </row>
     <row r="22" spans="1:64" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="41" t="s">
         <v>17</v>
       </c>
@@ -7270,11 +7270,11 @@
     </row>
     <row r="23" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="41"/>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
       <c r="E23" s="41" t="s">
         <v>14</v>
       </c>
@@ -7346,11 +7346,11 @@
     </row>
     <row r="24" spans="1:64" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="41"/>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="41" t="s">
         <v>14</v>
       </c>
@@ -7422,11 +7422,11 @@
     </row>
     <row r="25" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="41"/>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="98"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
       <c r="E25" s="41" t="s">
         <v>21</v>
       </c>
@@ -7500,11 +7500,11 @@
       <c r="A26" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="98"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="41" t="s">
         <v>17</v>
       </c>
@@ -7578,11 +7578,11 @@
       <c r="A27" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="98"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
       <c r="E27" s="41" t="s">
         <v>17</v>
       </c>
@@ -7654,11 +7654,11 @@
     </row>
     <row r="28" spans="1:64" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="41"/>
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="97"/>
-      <c r="D28" s="98"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="41" t="s">
         <v>21</v>
       </c>
@@ -7734,11 +7734,11 @@
     </row>
     <row r="29" spans="1:64" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="41"/>
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="97"/>
-      <c r="D29" s="98"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
       <c r="E29" s="41" t="s">
         <v>14</v>
       </c>
@@ -7892,11 +7892,11 @@
       <c r="A31" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="110"/>
-      <c r="D31" s="111"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="86"/>
       <c r="E31" s="41" t="s">
         <v>17</v>
       </c>
@@ -7970,11 +7970,11 @@
       <c r="A32" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="98"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="41" t="s">
         <v>17</v>
       </c>
@@ -8046,11 +8046,11 @@
     </row>
     <row r="33" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="41"/>
-      <c r="B33" s="101" t="s">
+      <c r="B33" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="97"/>
-      <c r="D33" s="98"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92"/>
       <c r="E33" s="41" t="s">
         <v>21</v>
       </c>
@@ -8122,11 +8122,11 @@
     </row>
     <row r="34" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="41"/>
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="97"/>
-      <c r="D34" s="98"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="92"/>
       <c r="E34" s="41" t="s">
         <v>21</v>
       </c>
@@ -8198,9 +8198,9 @@
     </row>
     <row r="35" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="41"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="114"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="89"/>
       <c r="E35" s="41"/>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
@@ -8264,9 +8264,9 @@
     </row>
     <row r="36" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="41"/>
-      <c r="B36" s="103"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="98"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="41"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
@@ -8462,9 +8462,9 @@
     </row>
     <row r="39" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="98"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="92"/>
       <c r="E39" s="41"/>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
@@ -8528,9 +8528,9 @@
     </row>
     <row r="40" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="41"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="98"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="92"/>
       <c r="E40" s="41"/>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
@@ -8594,9 +8594,9 @@
     </row>
     <row r="41" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="98"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="92"/>
       <c r="E41" s="41"/>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
@@ -8660,9 +8660,9 @@
     </row>
     <row r="42" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="41"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="98"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="92"/>
       <c r="E42" s="41"/>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
@@ -8726,9 +8726,9 @@
     </row>
     <row r="43" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="98"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="92"/>
       <c r="E43" s="41"/>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
@@ -8792,9 +8792,9 @@
     </row>
     <row r="44" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="41"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="98"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="92"/>
       <c r="E44" s="41"/>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
@@ -8858,9 +8858,9 @@
     </row>
     <row r="45" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="98"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="92"/>
       <c r="E45" s="41"/>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
@@ -8924,9 +8924,9 @@
     </row>
     <row r="46" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="41"/>
-      <c r="B46" s="103"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="98"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="92"/>
       <c r="E46" s="41"/>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
@@ -8990,9 +8990,9 @@
     </row>
     <row r="47" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="41"/>
-      <c r="B47" s="103"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="98"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="92"/>
       <c r="E47" s="41"/>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
@@ -9056,9 +9056,9 @@
     </row>
     <row r="48" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="41"/>
-      <c r="B48" s="101"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="98"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="92"/>
       <c r="E48" s="41"/>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
@@ -9122,9 +9122,9 @@
     </row>
     <row r="49" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="41"/>
-      <c r="B49" s="101"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="98"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="92"/>
       <c r="E49" s="41"/>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
@@ -9188,9 +9188,9 @@
     </row>
     <row r="50" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="41"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="97"/>
-      <c r="D50" s="98"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="92"/>
       <c r="E50" s="41"/>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
@@ -9254,9 +9254,9 @@
     </row>
     <row r="51" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="41"/>
-      <c r="B51" s="101"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="98"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="92"/>
       <c r="E51" s="41"/>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
@@ -9320,9 +9320,9 @@
     </row>
     <row r="52" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="57"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="109"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="100"/>
       <c r="E52" s="57"/>
       <c r="F52" s="57"/>
       <c r="G52" s="41"/>
@@ -9386,7 +9386,7 @@
     </row>
     <row r="53" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="58"/>
-      <c r="B53" s="104"/>
+      <c r="B53" s="83"/>
       <c r="C53" s="72"/>
       <c r="D53" s="73"/>
       <c r="E53" s="58"/>
@@ -9452,7 +9452,7 @@
     </row>
     <row r="54" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="58"/>
-      <c r="B54" s="104"/>
+      <c r="B54" s="83"/>
       <c r="C54" s="72"/>
       <c r="D54" s="73"/>
       <c r="E54" s="58"/>
@@ -9518,7 +9518,7 @@
     </row>
     <row r="55" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="58"/>
-      <c r="B55" s="104"/>
+      <c r="B55" s="83"/>
       <c r="C55" s="72"/>
       <c r="D55" s="73"/>
       <c r="E55" s="58"/>
@@ -9584,7 +9584,7 @@
     </row>
     <row r="56" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="58"/>
-      <c r="B56" s="104"/>
+      <c r="B56" s="83"/>
       <c r="C56" s="72"/>
       <c r="D56" s="73"/>
       <c r="E56" s="58"/>
@@ -9650,7 +9650,7 @@
     </row>
     <row r="57" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="58"/>
-      <c r="B57" s="104"/>
+      <c r="B57" s="83"/>
       <c r="C57" s="72"/>
       <c r="D57" s="73"/>
       <c r="E57" s="58"/>
@@ -9716,7 +9716,7 @@
     </row>
     <row r="58" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="58"/>
-      <c r="B58" s="104"/>
+      <c r="B58" s="83"/>
       <c r="C58" s="72"/>
       <c r="D58" s="73"/>
       <c r="E58" s="58"/>
@@ -9763,7 +9763,7 @@
     </row>
     <row r="59" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="58"/>
-      <c r="B59" s="104"/>
+      <c r="B59" s="83"/>
       <c r="C59" s="72"/>
       <c r="D59" s="73"/>
       <c r="E59" s="58"/>
@@ -9810,7 +9810,7 @@
     </row>
     <row r="60" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="58"/>
-      <c r="B60" s="104"/>
+      <c r="B60" s="83"/>
       <c r="C60" s="72"/>
       <c r="D60" s="73"/>
       <c r="E60" s="58"/>
@@ -9857,7 +9857,7 @@
     </row>
     <row r="61" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="58"/>
-      <c r="B61" s="104"/>
+      <c r="B61" s="83"/>
       <c r="C61" s="72"/>
       <c r="D61" s="73"/>
       <c r="E61" s="58"/>
@@ -9904,7 +9904,7 @@
     </row>
     <row r="62" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="58"/>
-      <c r="B62" s="104"/>
+      <c r="B62" s="83"/>
       <c r="C62" s="72"/>
       <c r="D62" s="73"/>
       <c r="E62" s="58"/>
@@ -9951,7 +9951,7 @@
     </row>
     <row r="63" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="58"/>
-      <c r="B63" s="104"/>
+      <c r="B63" s="83"/>
       <c r="C63" s="72"/>
       <c r="D63" s="73"/>
       <c r="E63" s="58"/>
@@ -9998,7 +9998,7 @@
     </row>
     <row r="64" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="58"/>
-      <c r="B64" s="104"/>
+      <c r="B64" s="83"/>
       <c r="C64" s="72"/>
       <c r="D64" s="73"/>
       <c r="E64" s="58"/>
@@ -10045,7 +10045,7 @@
     </row>
     <row r="65" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="58"/>
-      <c r="B65" s="104"/>
+      <c r="B65" s="83"/>
       <c r="C65" s="72"/>
       <c r="D65" s="73"/>
       <c r="E65" s="58"/>
@@ -10092,7 +10092,7 @@
     </row>
     <row r="66" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="58"/>
-      <c r="B66" s="104"/>
+      <c r="B66" s="83"/>
       <c r="C66" s="72"/>
       <c r="D66" s="73"/>
       <c r="E66" s="58"/>
@@ -10139,7 +10139,7 @@
     </row>
     <row r="67" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="58"/>
-      <c r="B67" s="104"/>
+      <c r="B67" s="83"/>
       <c r="C67" s="72"/>
       <c r="D67" s="73"/>
       <c r="E67" s="58"/>
@@ -10186,7 +10186,7 @@
     </row>
     <row r="68" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="58"/>
-      <c r="B68" s="104"/>
+      <c r="B68" s="83"/>
       <c r="C68" s="72"/>
       <c r="D68" s="73"/>
       <c r="E68" s="58"/>
@@ -10233,7 +10233,7 @@
     </row>
     <row r="69" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="58"/>
-      <c r="B69" s="104"/>
+      <c r="B69" s="83"/>
       <c r="C69" s="72"/>
       <c r="D69" s="73"/>
       <c r="E69" s="58"/>
@@ -10280,7 +10280,7 @@
     </row>
     <row r="70" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="58"/>
-      <c r="B70" s="104"/>
+      <c r="B70" s="83"/>
       <c r="C70" s="72"/>
       <c r="D70" s="73"/>
       <c r="E70" s="58"/>
@@ -10327,7 +10327,7 @@
     </row>
     <row r="71" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="58"/>
-      <c r="B71" s="104"/>
+      <c r="B71" s="83"/>
       <c r="C71" s="72"/>
       <c r="D71" s="73"/>
       <c r="E71" s="58"/>
@@ -10374,7 +10374,7 @@
     </row>
     <row r="72" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="58"/>
-      <c r="B72" s="104"/>
+      <c r="B72" s="83"/>
       <c r="C72" s="72"/>
       <c r="D72" s="73"/>
       <c r="E72" s="58"/>
@@ -10421,7 +10421,7 @@
     </row>
     <row r="73" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="58"/>
-      <c r="B73" s="104"/>
+      <c r="B73" s="83"/>
       <c r="C73" s="72"/>
       <c r="D73" s="73"/>
       <c r="E73" s="58"/>
@@ -10468,7 +10468,7 @@
     </row>
     <row r="74" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="58"/>
-      <c r="B74" s="104"/>
+      <c r="B74" s="83"/>
       <c r="C74" s="72"/>
       <c r="D74" s="73"/>
       <c r="E74" s="58"/>
@@ -10515,7 +10515,7 @@
     </row>
     <row r="75" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="58"/>
-      <c r="B75" s="104"/>
+      <c r="B75" s="83"/>
       <c r="C75" s="72"/>
       <c r="D75" s="73"/>
       <c r="E75" s="58"/>
@@ -10562,7 +10562,7 @@
     </row>
     <row r="76" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="58"/>
-      <c r="B76" s="104"/>
+      <c r="B76" s="83"/>
       <c r="C76" s="72"/>
       <c r="D76" s="73"/>
       <c r="E76" s="58"/>
@@ -10609,7 +10609,7 @@
     </row>
     <row r="77" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="58"/>
-      <c r="B77" s="104"/>
+      <c r="B77" s="83"/>
       <c r="C77" s="72"/>
       <c r="D77" s="73"/>
       <c r="E77" s="58"/>
@@ -10656,7 +10656,7 @@
     </row>
     <row r="78" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="58"/>
-      <c r="B78" s="104"/>
+      <c r="B78" s="83"/>
       <c r="C78" s="72"/>
       <c r="D78" s="73"/>
       <c r="E78" s="58"/>
@@ -10703,7 +10703,7 @@
     </row>
     <row r="79" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="58"/>
-      <c r="B79" s="104"/>
+      <c r="B79" s="83"/>
       <c r="C79" s="72"/>
       <c r="D79" s="73"/>
       <c r="E79" s="58"/>
@@ -10750,7 +10750,7 @@
     </row>
     <row r="80" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="58"/>
-      <c r="B80" s="104"/>
+      <c r="B80" s="83"/>
       <c r="C80" s="72"/>
       <c r="D80" s="73"/>
       <c r="E80" s="58"/>
@@ -10797,7 +10797,7 @@
     </row>
     <row r="81" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="58"/>
-      <c r="B81" s="104"/>
+      <c r="B81" s="83"/>
       <c r="C81" s="72"/>
       <c r="D81" s="73"/>
       <c r="E81" s="58"/>
@@ -10844,7 +10844,7 @@
     </row>
     <row r="82" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="58"/>
-      <c r="B82" s="104"/>
+      <c r="B82" s="83"/>
       <c r="C82" s="72"/>
       <c r="D82" s="73"/>
       <c r="E82" s="58"/>
@@ -10891,7 +10891,7 @@
     </row>
     <row r="83" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="58"/>
-      <c r="B83" s="104"/>
+      <c r="B83" s="83"/>
       <c r="C83" s="72"/>
       <c r="D83" s="73"/>
       <c r="E83" s="58"/>
@@ -10938,7 +10938,7 @@
     </row>
     <row r="84" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="58"/>
-      <c r="B84" s="104"/>
+      <c r="B84" s="83"/>
       <c r="C84" s="72"/>
       <c r="D84" s="73"/>
       <c r="E84" s="58"/>
@@ -10985,7 +10985,7 @@
     </row>
     <row r="85" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="58"/>
-      <c r="B85" s="104"/>
+      <c r="B85" s="83"/>
       <c r="C85" s="72"/>
       <c r="D85" s="73"/>
       <c r="E85" s="58"/>
@@ -11032,7 +11032,7 @@
     </row>
     <row r="86" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="58"/>
-      <c r="B86" s="104"/>
+      <c r="B86" s="83"/>
       <c r="C86" s="72"/>
       <c r="D86" s="73"/>
       <c r="E86" s="58"/>
@@ -11079,7 +11079,7 @@
     </row>
     <row r="87" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="58"/>
-      <c r="B87" s="104"/>
+      <c r="B87" s="83"/>
       <c r="C87" s="72"/>
       <c r="D87" s="73"/>
       <c r="E87" s="58"/>
@@ -11126,7 +11126,7 @@
     </row>
     <row r="88" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="58"/>
-      <c r="B88" s="104"/>
+      <c r="B88" s="83"/>
       <c r="C88" s="72"/>
       <c r="D88" s="73"/>
       <c r="E88" s="58"/>
@@ -11173,7 +11173,7 @@
     </row>
     <row r="89" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="58"/>
-      <c r="B89" s="104"/>
+      <c r="B89" s="83"/>
       <c r="C89" s="72"/>
       <c r="D89" s="73"/>
       <c r="E89" s="58"/>
@@ -11220,7 +11220,7 @@
     </row>
     <row r="90" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="58"/>
-      <c r="B90" s="104"/>
+      <c r="B90" s="83"/>
       <c r="C90" s="72"/>
       <c r="D90" s="73"/>
       <c r="E90" s="58"/>
@@ -11267,7 +11267,7 @@
     </row>
     <row r="91" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="58"/>
-      <c r="B91" s="104"/>
+      <c r="B91" s="83"/>
       <c r="C91" s="72"/>
       <c r="D91" s="73"/>
       <c r="E91" s="58"/>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="92" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="58"/>
-      <c r="B92" s="104"/>
+      <c r="B92" s="83"/>
       <c r="C92" s="72"/>
       <c r="D92" s="73"/>
       <c r="E92" s="58"/>
@@ -11361,7 +11361,7 @@
     </row>
     <row r="93" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="58"/>
-      <c r="B93" s="104"/>
+      <c r="B93" s="83"/>
       <c r="C93" s="72"/>
       <c r="D93" s="73"/>
       <c r="E93" s="58"/>
@@ -11408,7 +11408,7 @@
     </row>
     <row r="94" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="58"/>
-      <c r="B94" s="104"/>
+      <c r="B94" s="83"/>
       <c r="C94" s="72"/>
       <c r="D94" s="73"/>
       <c r="E94" s="58"/>
@@ -11455,7 +11455,7 @@
     </row>
     <row r="95" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="58"/>
-      <c r="B95" s="104"/>
+      <c r="B95" s="83"/>
       <c r="C95" s="72"/>
       <c r="D95" s="73"/>
       <c r="E95" s="58"/>
@@ -11502,7 +11502,7 @@
     </row>
     <row r="96" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="58"/>
-      <c r="B96" s="104"/>
+      <c r="B96" s="83"/>
       <c r="C96" s="72"/>
       <c r="D96" s="73"/>
       <c r="E96" s="58"/>
@@ -11549,7 +11549,7 @@
     </row>
     <row r="97" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="58"/>
-      <c r="B97" s="104"/>
+      <c r="B97" s="83"/>
       <c r="C97" s="72"/>
       <c r="D97" s="73"/>
       <c r="E97" s="58"/>
@@ -11596,7 +11596,7 @@
     </row>
     <row r="98" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="58"/>
-      <c r="B98" s="104"/>
+      <c r="B98" s="83"/>
       <c r="C98" s="72"/>
       <c r="D98" s="73"/>
       <c r="E98" s="58"/>
@@ -11643,7 +11643,7 @@
     </row>
     <row r="99" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="58"/>
-      <c r="B99" s="104"/>
+      <c r="B99" s="83"/>
       <c r="C99" s="72"/>
       <c r="D99" s="73"/>
       <c r="E99" s="58"/>
@@ -11690,7 +11690,7 @@
     </row>
     <row r="100" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="58"/>
-      <c r="B100" s="104"/>
+      <c r="B100" s="83"/>
       <c r="C100" s="72"/>
       <c r="D100" s="73"/>
       <c r="E100" s="58"/>
@@ -11737,7 +11737,7 @@
     </row>
     <row r="101" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="58"/>
-      <c r="B101" s="104"/>
+      <c r="B101" s="83"/>
       <c r="C101" s="72"/>
       <c r="D101" s="73"/>
       <c r="E101" s="58"/>
@@ -11784,7 +11784,7 @@
     </row>
     <row r="102" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="58"/>
-      <c r="B102" s="104"/>
+      <c r="B102" s="83"/>
       <c r="C102" s="72"/>
       <c r="D102" s="73"/>
       <c r="E102" s="58"/>
@@ -11831,7 +11831,7 @@
     </row>
     <row r="103" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="58"/>
-      <c r="B103" s="104"/>
+      <c r="B103" s="83"/>
       <c r="C103" s="72"/>
       <c r="D103" s="73"/>
       <c r="E103" s="58"/>
@@ -11878,7 +11878,7 @@
     </row>
     <row r="104" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="58"/>
-      <c r="B104" s="104"/>
+      <c r="B104" s="83"/>
       <c r="C104" s="72"/>
       <c r="D104" s="73"/>
       <c r="E104" s="58"/>
@@ -11925,7 +11925,7 @@
     </row>
     <row r="105" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="58"/>
-      <c r="B105" s="104"/>
+      <c r="B105" s="83"/>
       <c r="C105" s="72"/>
       <c r="D105" s="73"/>
       <c r="E105" s="58"/>
@@ -11972,7 +11972,7 @@
     </row>
     <row r="106" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="58"/>
-      <c r="B106" s="104"/>
+      <c r="B106" s="83"/>
       <c r="C106" s="72"/>
       <c r="D106" s="73"/>
       <c r="E106" s="58"/>
@@ -12019,7 +12019,7 @@
     </row>
     <row r="107" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="58"/>
-      <c r="B107" s="104"/>
+      <c r="B107" s="83"/>
       <c r="C107" s="72"/>
       <c r="D107" s="73"/>
       <c r="E107" s="58"/>
@@ -12066,7 +12066,7 @@
     </row>
     <row r="108" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="58"/>
-      <c r="B108" s="104"/>
+      <c r="B108" s="83"/>
       <c r="C108" s="72"/>
       <c r="D108" s="73"/>
       <c r="E108" s="58"/>
@@ -12113,7 +12113,7 @@
     </row>
     <row r="109" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="58"/>
-      <c r="B109" s="104"/>
+      <c r="B109" s="83"/>
       <c r="C109" s="72"/>
       <c r="D109" s="73"/>
       <c r="E109" s="58"/>
@@ -12160,7 +12160,7 @@
     </row>
     <row r="110" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="58"/>
-      <c r="B110" s="104"/>
+      <c r="B110" s="83"/>
       <c r="C110" s="72"/>
       <c r="D110" s="73"/>
       <c r="E110" s="58"/>
@@ -12207,7 +12207,7 @@
     </row>
     <row r="111" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="58"/>
-      <c r="B111" s="104"/>
+      <c r="B111" s="83"/>
       <c r="C111" s="72"/>
       <c r="D111" s="73"/>
       <c r="E111" s="58"/>
@@ -12254,7 +12254,7 @@
     </row>
     <row r="112" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="58"/>
-      <c r="B112" s="104"/>
+      <c r="B112" s="83"/>
       <c r="C112" s="72"/>
       <c r="D112" s="73"/>
       <c r="E112" s="58"/>
@@ -12301,7 +12301,7 @@
     </row>
     <row r="113" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="58"/>
-      <c r="B113" s="104"/>
+      <c r="B113" s="83"/>
       <c r="C113" s="72"/>
       <c r="D113" s="73"/>
       <c r="E113" s="58"/>
@@ -12348,7 +12348,7 @@
     </row>
     <row r="114" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="58"/>
-      <c r="B114" s="104"/>
+      <c r="B114" s="83"/>
       <c r="C114" s="72"/>
       <c r="D114" s="73"/>
       <c r="E114" s="58"/>
@@ -12395,7 +12395,7 @@
     </row>
     <row r="115" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="58"/>
-      <c r="B115" s="104"/>
+      <c r="B115" s="83"/>
       <c r="C115" s="72"/>
       <c r="D115" s="73"/>
       <c r="E115" s="58"/>
@@ -12442,7 +12442,7 @@
     </row>
     <row r="116" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="58"/>
-      <c r="B116" s="104"/>
+      <c r="B116" s="83"/>
       <c r="C116" s="72"/>
       <c r="D116" s="73"/>
       <c r="E116" s="58"/>
@@ -12489,7 +12489,7 @@
     </row>
     <row r="117" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="58"/>
-      <c r="B117" s="104"/>
+      <c r="B117" s="83"/>
       <c r="C117" s="72"/>
       <c r="D117" s="73"/>
       <c r="E117" s="58"/>
@@ -12536,7 +12536,7 @@
     </row>
     <row r="118" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="58"/>
-      <c r="B118" s="104"/>
+      <c r="B118" s="83"/>
       <c r="C118" s="72"/>
       <c r="D118" s="73"/>
       <c r="E118" s="58"/>
@@ -12583,7 +12583,7 @@
     </row>
     <row r="119" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="58"/>
-      <c r="B119" s="104"/>
+      <c r="B119" s="83"/>
       <c r="C119" s="72"/>
       <c r="D119" s="73"/>
       <c r="E119" s="58"/>
@@ -12630,7 +12630,7 @@
     </row>
     <row r="120" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="58"/>
-      <c r="B120" s="104"/>
+      <c r="B120" s="83"/>
       <c r="C120" s="72"/>
       <c r="D120" s="73"/>
       <c r="E120" s="58"/>
@@ -12677,7 +12677,7 @@
     </row>
     <row r="121" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="58"/>
-      <c r="B121" s="104"/>
+      <c r="B121" s="83"/>
       <c r="C121" s="72"/>
       <c r="D121" s="73"/>
       <c r="E121" s="58"/>
@@ -12724,7 +12724,7 @@
     </row>
     <row r="122" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="58"/>
-      <c r="B122" s="104"/>
+      <c r="B122" s="83"/>
       <c r="C122" s="72"/>
       <c r="D122" s="73"/>
       <c r="E122" s="58"/>
@@ -12771,7 +12771,7 @@
     </row>
     <row r="123" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="58"/>
-      <c r="B123" s="104"/>
+      <c r="B123" s="83"/>
       <c r="C123" s="72"/>
       <c r="D123" s="73"/>
       <c r="E123" s="58"/>
@@ -12818,7 +12818,7 @@
     </row>
     <row r="124" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="58"/>
-      <c r="B124" s="104"/>
+      <c r="B124" s="83"/>
       <c r="C124" s="72"/>
       <c r="D124" s="73"/>
       <c r="E124" s="58"/>
@@ -12865,7 +12865,7 @@
     </row>
     <row r="125" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="58"/>
-      <c r="B125" s="104"/>
+      <c r="B125" s="83"/>
       <c r="C125" s="72"/>
       <c r="D125" s="73"/>
       <c r="E125" s="58"/>
@@ -12912,7 +12912,7 @@
     </row>
     <row r="126" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="58"/>
-      <c r="B126" s="104"/>
+      <c r="B126" s="83"/>
       <c r="C126" s="72"/>
       <c r="D126" s="73"/>
       <c r="E126" s="58"/>
@@ -12959,7 +12959,7 @@
     </row>
     <row r="127" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="58"/>
-      <c r="B127" s="104"/>
+      <c r="B127" s="83"/>
       <c r="C127" s="72"/>
       <c r="D127" s="73"/>
       <c r="E127" s="58"/>
@@ -13006,7 +13006,7 @@
     </row>
     <row r="128" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="58"/>
-      <c r="B128" s="104"/>
+      <c r="B128" s="83"/>
       <c r="C128" s="72"/>
       <c r="D128" s="73"/>
       <c r="E128" s="58"/>
@@ -13053,7 +13053,7 @@
     </row>
     <row r="129" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="58"/>
-      <c r="B129" s="104"/>
+      <c r="B129" s="83"/>
       <c r="C129" s="72"/>
       <c r="D129" s="73"/>
       <c r="E129" s="58"/>
@@ -13100,7 +13100,7 @@
     </row>
     <row r="130" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="58"/>
-      <c r="B130" s="104"/>
+      <c r="B130" s="83"/>
       <c r="C130" s="72"/>
       <c r="D130" s="73"/>
       <c r="E130" s="58"/>
@@ -13147,7 +13147,7 @@
     </row>
     <row r="131" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="58"/>
-      <c r="B131" s="104"/>
+      <c r="B131" s="83"/>
       <c r="C131" s="72"/>
       <c r="D131" s="73"/>
       <c r="E131" s="58"/>
@@ -13194,7 +13194,7 @@
     </row>
     <row r="132" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="58"/>
-      <c r="B132" s="104"/>
+      <c r="B132" s="83"/>
       <c r="C132" s="72"/>
       <c r="D132" s="73"/>
       <c r="E132" s="58"/>
@@ -13241,7 +13241,7 @@
     </row>
     <row r="133" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="58"/>
-      <c r="B133" s="104"/>
+      <c r="B133" s="83"/>
       <c r="C133" s="72"/>
       <c r="D133" s="73"/>
       <c r="E133" s="58"/>
@@ -13288,7 +13288,7 @@
     </row>
     <row r="134" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="58"/>
-      <c r="B134" s="104"/>
+      <c r="B134" s="83"/>
       <c r="C134" s="72"/>
       <c r="D134" s="73"/>
       <c r="E134" s="58"/>
@@ -13335,7 +13335,7 @@
     </row>
     <row r="135" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="58"/>
-      <c r="B135" s="104"/>
+      <c r="B135" s="83"/>
       <c r="C135" s="72"/>
       <c r="D135" s="73"/>
       <c r="E135" s="58"/>
@@ -13382,7 +13382,7 @@
     </row>
     <row r="136" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="58"/>
-      <c r="B136" s="104"/>
+      <c r="B136" s="83"/>
       <c r="C136" s="72"/>
       <c r="D136" s="73"/>
       <c r="E136" s="58"/>
@@ -13429,7 +13429,7 @@
     </row>
     <row r="137" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="58"/>
-      <c r="B137" s="104"/>
+      <c r="B137" s="83"/>
       <c r="C137" s="72"/>
       <c r="D137" s="73"/>
       <c r="E137" s="58"/>
@@ -13476,7 +13476,7 @@
     </row>
     <row r="138" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="58"/>
-      <c r="B138" s="104"/>
+      <c r="B138" s="83"/>
       <c r="C138" s="72"/>
       <c r="D138" s="73"/>
       <c r="E138" s="58"/>
@@ -13523,7 +13523,7 @@
     </row>
     <row r="139" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="58"/>
-      <c r="B139" s="104"/>
+      <c r="B139" s="83"/>
       <c r="C139" s="72"/>
       <c r="D139" s="73"/>
       <c r="E139" s="58"/>
@@ -13570,7 +13570,7 @@
     </row>
     <row r="140" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="58"/>
-      <c r="B140" s="104"/>
+      <c r="B140" s="83"/>
       <c r="C140" s="72"/>
       <c r="D140" s="73"/>
       <c r="E140" s="58"/>
@@ -13617,7 +13617,7 @@
     </row>
     <row r="141" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="58"/>
-      <c r="B141" s="104"/>
+      <c r="B141" s="83"/>
       <c r="C141" s="72"/>
       <c r="D141" s="73"/>
       <c r="E141" s="58"/>
@@ -13664,7 +13664,7 @@
     </row>
     <row r="142" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="58"/>
-      <c r="B142" s="104"/>
+      <c r="B142" s="83"/>
       <c r="C142" s="72"/>
       <c r="D142" s="73"/>
       <c r="E142" s="58"/>
@@ -13711,7 +13711,7 @@
     </row>
     <row r="143" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="58"/>
-      <c r="B143" s="104"/>
+      <c r="B143" s="83"/>
       <c r="C143" s="72"/>
       <c r="D143" s="73"/>
       <c r="E143" s="58"/>
@@ -13758,7 +13758,7 @@
     </row>
     <row r="144" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="58"/>
-      <c r="B144" s="104"/>
+      <c r="B144" s="83"/>
       <c r="C144" s="72"/>
       <c r="D144" s="73"/>
       <c r="E144" s="58"/>
@@ -13805,7 +13805,7 @@
     </row>
     <row r="145" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="58"/>
-      <c r="B145" s="104"/>
+      <c r="B145" s="83"/>
       <c r="C145" s="72"/>
       <c r="D145" s="73"/>
       <c r="E145" s="58"/>
@@ -13852,7 +13852,7 @@
     </row>
     <row r="146" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="58"/>
-      <c r="B146" s="104"/>
+      <c r="B146" s="83"/>
       <c r="C146" s="72"/>
       <c r="D146" s="73"/>
       <c r="E146" s="58"/>
@@ -13899,7 +13899,7 @@
     </row>
     <row r="147" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="58"/>
-      <c r="B147" s="104"/>
+      <c r="B147" s="83"/>
       <c r="C147" s="72"/>
       <c r="D147" s="73"/>
       <c r="E147" s="58"/>
@@ -13946,7 +13946,7 @@
     </row>
     <row r="148" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="58"/>
-      <c r="B148" s="104"/>
+      <c r="B148" s="83"/>
       <c r="C148" s="72"/>
       <c r="D148" s="73"/>
       <c r="E148" s="58"/>
@@ -13993,7 +13993,7 @@
     </row>
     <row r="149" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="58"/>
-      <c r="B149" s="104"/>
+      <c r="B149" s="83"/>
       <c r="C149" s="72"/>
       <c r="D149" s="73"/>
       <c r="E149" s="58"/>
@@ -14040,7 +14040,7 @@
     </row>
     <row r="150" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="58"/>
-      <c r="B150" s="104"/>
+      <c r="B150" s="83"/>
       <c r="C150" s="72"/>
       <c r="D150" s="73"/>
       <c r="E150" s="58"/>
@@ -14087,7 +14087,7 @@
     </row>
     <row r="151" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="58"/>
-      <c r="B151" s="104"/>
+      <c r="B151" s="83"/>
       <c r="C151" s="72"/>
       <c r="D151" s="73"/>
       <c r="E151" s="58"/>
@@ -14134,7 +14134,7 @@
     </row>
     <row r="152" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="58"/>
-      <c r="B152" s="104"/>
+      <c r="B152" s="83"/>
       <c r="C152" s="72"/>
       <c r="D152" s="73"/>
       <c r="E152" s="58"/>
@@ -14181,7 +14181,7 @@
     </row>
     <row r="153" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="58"/>
-      <c r="B153" s="104"/>
+      <c r="B153" s="83"/>
       <c r="C153" s="72"/>
       <c r="D153" s="73"/>
       <c r="E153" s="58"/>
@@ -14228,7 +14228,7 @@
     </row>
     <row r="154" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="58"/>
-      <c r="B154" s="104"/>
+      <c r="B154" s="83"/>
       <c r="C154" s="72"/>
       <c r="D154" s="73"/>
       <c r="E154" s="58"/>
@@ -14275,7 +14275,7 @@
     </row>
     <row r="155" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="58"/>
-      <c r="B155" s="104"/>
+      <c r="B155" s="83"/>
       <c r="C155" s="72"/>
       <c r="D155" s="73"/>
       <c r="E155" s="58"/>
@@ -14322,7 +14322,7 @@
     </row>
     <row r="156" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="58"/>
-      <c r="B156" s="104"/>
+      <c r="B156" s="83"/>
       <c r="C156" s="72"/>
       <c r="D156" s="73"/>
       <c r="E156" s="58"/>
@@ -14369,7 +14369,7 @@
     </row>
     <row r="157" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="58"/>
-      <c r="B157" s="104"/>
+      <c r="B157" s="83"/>
       <c r="C157" s="72"/>
       <c r="D157" s="73"/>
       <c r="E157" s="58"/>
@@ -14416,7 +14416,7 @@
     </row>
     <row r="158" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="58"/>
-      <c r="B158" s="104"/>
+      <c r="B158" s="83"/>
       <c r="C158" s="72"/>
       <c r="D158" s="73"/>
       <c r="E158" s="58"/>
@@ -14463,7 +14463,7 @@
     </row>
     <row r="159" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="58"/>
-      <c r="B159" s="104"/>
+      <c r="B159" s="83"/>
       <c r="C159" s="72"/>
       <c r="D159" s="73"/>
       <c r="E159" s="58"/>
@@ -14510,7 +14510,7 @@
     </row>
     <row r="160" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="58"/>
-      <c r="B160" s="104"/>
+      <c r="B160" s="83"/>
       <c r="C160" s="72"/>
       <c r="D160" s="73"/>
       <c r="E160" s="58"/>
@@ -14557,7 +14557,7 @@
     </row>
     <row r="161" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="58"/>
-      <c r="B161" s="104"/>
+      <c r="B161" s="83"/>
       <c r="C161" s="72"/>
       <c r="D161" s="73"/>
       <c r="E161" s="58"/>
@@ -14604,7 +14604,7 @@
     </row>
     <row r="162" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="58"/>
-      <c r="B162" s="104"/>
+      <c r="B162" s="83"/>
       <c r="C162" s="72"/>
       <c r="D162" s="73"/>
       <c r="E162" s="58"/>
@@ -14651,7 +14651,7 @@
     </row>
     <row r="163" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="58"/>
-      <c r="B163" s="104"/>
+      <c r="B163" s="83"/>
       <c r="C163" s="72"/>
       <c r="D163" s="73"/>
       <c r="E163" s="58"/>
@@ -14698,7 +14698,7 @@
     </row>
     <row r="164" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="58"/>
-      <c r="B164" s="104"/>
+      <c r="B164" s="83"/>
       <c r="C164" s="72"/>
       <c r="D164" s="73"/>
       <c r="E164" s="58"/>
@@ -14745,7 +14745,7 @@
     </row>
     <row r="165" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="58"/>
-      <c r="B165" s="104"/>
+      <c r="B165" s="83"/>
       <c r="C165" s="72"/>
       <c r="D165" s="73"/>
       <c r="E165" s="58"/>
@@ -14792,7 +14792,7 @@
     </row>
     <row r="166" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="58"/>
-      <c r="B166" s="104"/>
+      <c r="B166" s="83"/>
       <c r="C166" s="72"/>
       <c r="D166" s="73"/>
       <c r="E166" s="58"/>
@@ -14839,7 +14839,7 @@
     </row>
     <row r="167" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="58"/>
-      <c r="B167" s="104"/>
+      <c r="B167" s="83"/>
       <c r="C167" s="72"/>
       <c r="D167" s="73"/>
       <c r="E167" s="58"/>
@@ -14886,7 +14886,7 @@
     </row>
     <row r="168" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="58"/>
-      <c r="B168" s="104"/>
+      <c r="B168" s="83"/>
       <c r="C168" s="72"/>
       <c r="D168" s="73"/>
       <c r="E168" s="58"/>
@@ -14933,7 +14933,7 @@
     </row>
     <row r="169" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="58"/>
-      <c r="B169" s="104"/>
+      <c r="B169" s="83"/>
       <c r="C169" s="72"/>
       <c r="D169" s="73"/>
       <c r="E169" s="58"/>
@@ -14980,7 +14980,7 @@
     </row>
     <row r="170" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="58"/>
-      <c r="B170" s="104"/>
+      <c r="B170" s="83"/>
       <c r="C170" s="72"/>
       <c r="D170" s="73"/>
       <c r="E170" s="58"/>
@@ -15027,7 +15027,7 @@
     </row>
     <row r="171" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="58"/>
-      <c r="B171" s="104"/>
+      <c r="B171" s="83"/>
       <c r="C171" s="72"/>
       <c r="D171" s="73"/>
       <c r="E171" s="58"/>
@@ -15074,7 +15074,7 @@
     </row>
     <row r="172" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="58"/>
-      <c r="B172" s="104"/>
+      <c r="B172" s="83"/>
       <c r="C172" s="72"/>
       <c r="D172" s="73"/>
       <c r="E172" s="58"/>
@@ -15121,7 +15121,7 @@
     </row>
     <row r="173" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="58"/>
-      <c r="B173" s="104"/>
+      <c r="B173" s="83"/>
       <c r="C173" s="72"/>
       <c r="D173" s="73"/>
       <c r="E173" s="58"/>
@@ -15168,7 +15168,7 @@
     </row>
     <row r="174" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="58"/>
-      <c r="B174" s="104"/>
+      <c r="B174" s="83"/>
       <c r="C174" s="72"/>
       <c r="D174" s="73"/>
       <c r="E174" s="58"/>
@@ -15215,7 +15215,7 @@
     </row>
     <row r="175" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="58"/>
-      <c r="B175" s="104"/>
+      <c r="B175" s="83"/>
       <c r="C175" s="72"/>
       <c r="D175" s="73"/>
       <c r="E175" s="58"/>
@@ -15262,7 +15262,7 @@
     </row>
     <row r="176" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="58"/>
-      <c r="B176" s="104"/>
+      <c r="B176" s="83"/>
       <c r="C176" s="72"/>
       <c r="D176" s="73"/>
       <c r="E176" s="58"/>
@@ -15309,7 +15309,7 @@
     </row>
     <row r="177" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="58"/>
-      <c r="B177" s="104"/>
+      <c r="B177" s="83"/>
       <c r="C177" s="72"/>
       <c r="D177" s="73"/>
       <c r="E177" s="58"/>
@@ -15356,7 +15356,7 @@
     </row>
     <row r="178" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="58"/>
-      <c r="B178" s="104"/>
+      <c r="B178" s="83"/>
       <c r="C178" s="72"/>
       <c r="D178" s="73"/>
       <c r="E178" s="58"/>
@@ -15403,7 +15403,7 @@
     </row>
     <row r="179" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="58"/>
-      <c r="B179" s="104"/>
+      <c r="B179" s="83"/>
       <c r="C179" s="72"/>
       <c r="D179" s="73"/>
       <c r="E179" s="58"/>
@@ -15450,7 +15450,7 @@
     </row>
     <row r="180" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="58"/>
-      <c r="B180" s="104"/>
+      <c r="B180" s="83"/>
       <c r="C180" s="72"/>
       <c r="D180" s="73"/>
       <c r="E180" s="58"/>
@@ -15497,7 +15497,7 @@
     </row>
     <row r="181" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="58"/>
-      <c r="B181" s="104"/>
+      <c r="B181" s="83"/>
       <c r="C181" s="72"/>
       <c r="D181" s="73"/>
       <c r="E181" s="58"/>
@@ -15544,7 +15544,7 @@
     </row>
     <row r="182" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="58"/>
-      <c r="B182" s="104"/>
+      <c r="B182" s="83"/>
       <c r="C182" s="72"/>
       <c r="D182" s="73"/>
       <c r="E182" s="58"/>
@@ -15591,7 +15591,7 @@
     </row>
     <row r="183" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="58"/>
-      <c r="B183" s="104"/>
+      <c r="B183" s="83"/>
       <c r="C183" s="72"/>
       <c r="D183" s="73"/>
       <c r="E183" s="58"/>
@@ -15638,7 +15638,7 @@
     </row>
     <row r="184" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="58"/>
-      <c r="B184" s="104"/>
+      <c r="B184" s="83"/>
       <c r="C184" s="72"/>
       <c r="D184" s="73"/>
       <c r="E184" s="58"/>
@@ -15685,7 +15685,7 @@
     </row>
     <row r="185" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="58"/>
-      <c r="B185" s="104"/>
+      <c r="B185" s="83"/>
       <c r="C185" s="72"/>
       <c r="D185" s="73"/>
       <c r="E185" s="58"/>
@@ -15732,7 +15732,7 @@
     </row>
     <row r="186" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="58"/>
-      <c r="B186" s="104"/>
+      <c r="B186" s="83"/>
       <c r="C186" s="72"/>
       <c r="D186" s="73"/>
       <c r="E186" s="58"/>
@@ -15779,7 +15779,7 @@
     </row>
     <row r="187" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="58"/>
-      <c r="B187" s="104"/>
+      <c r="B187" s="83"/>
       <c r="C187" s="72"/>
       <c r="D187" s="73"/>
       <c r="E187" s="58"/>
@@ -15826,7 +15826,7 @@
     </row>
     <row r="188" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="58"/>
-      <c r="B188" s="104"/>
+      <c r="B188" s="83"/>
       <c r="C188" s="72"/>
       <c r="D188" s="73"/>
       <c r="E188" s="58"/>
@@ -15873,7 +15873,7 @@
     </row>
     <row r="189" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="58"/>
-      <c r="B189" s="104"/>
+      <c r="B189" s="83"/>
       <c r="C189" s="72"/>
       <c r="D189" s="73"/>
       <c r="E189" s="58"/>
@@ -15920,7 +15920,7 @@
     </row>
     <row r="190" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="58"/>
-      <c r="B190" s="104"/>
+      <c r="B190" s="83"/>
       <c r="C190" s="72"/>
       <c r="D190" s="73"/>
       <c r="E190" s="58"/>
@@ -15967,7 +15967,7 @@
     </row>
     <row r="191" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="58"/>
-      <c r="B191" s="104"/>
+      <c r="B191" s="83"/>
       <c r="C191" s="72"/>
       <c r="D191" s="73"/>
       <c r="E191" s="58"/>
@@ -16014,7 +16014,7 @@
     </row>
     <row r="192" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="58"/>
-      <c r="B192" s="104"/>
+      <c r="B192" s="83"/>
       <c r="C192" s="72"/>
       <c r="D192" s="73"/>
       <c r="E192" s="58"/>
@@ -16061,7 +16061,7 @@
     </row>
     <row r="193" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="58"/>
-      <c r="B193" s="104"/>
+      <c r="B193" s="83"/>
       <c r="C193" s="72"/>
       <c r="D193" s="73"/>
       <c r="E193" s="58"/>
@@ -16108,7 +16108,7 @@
     </row>
     <row r="194" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="58"/>
-      <c r="B194" s="104"/>
+      <c r="B194" s="83"/>
       <c r="C194" s="72"/>
       <c r="D194" s="73"/>
       <c r="E194" s="58"/>
@@ -16155,7 +16155,7 @@
     </row>
     <row r="195" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="58"/>
-      <c r="B195" s="104"/>
+      <c r="B195" s="83"/>
       <c r="C195" s="72"/>
       <c r="D195" s="73"/>
       <c r="E195" s="58"/>
@@ -16202,7 +16202,7 @@
     </row>
     <row r="196" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="58"/>
-      <c r="B196" s="104"/>
+      <c r="B196" s="83"/>
       <c r="C196" s="72"/>
       <c r="D196" s="73"/>
       <c r="E196" s="58"/>
@@ -16249,7 +16249,7 @@
     </row>
     <row r="197" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="58"/>
-      <c r="B197" s="104"/>
+      <c r="B197" s="83"/>
       <c r="C197" s="72"/>
       <c r="D197" s="73"/>
       <c r="E197" s="58"/>
@@ -16296,7 +16296,7 @@
     </row>
     <row r="198" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="58"/>
-      <c r="B198" s="104"/>
+      <c r="B198" s="83"/>
       <c r="C198" s="72"/>
       <c r="D198" s="73"/>
       <c r="E198" s="58"/>
@@ -16343,7 +16343,7 @@
     </row>
     <row r="199" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="58"/>
-      <c r="B199" s="104"/>
+      <c r="B199" s="83"/>
       <c r="C199" s="72"/>
       <c r="D199" s="73"/>
       <c r="E199" s="58"/>
@@ -16390,7 +16390,7 @@
     </row>
     <row r="200" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="58"/>
-      <c r="B200" s="104"/>
+      <c r="B200" s="83"/>
       <c r="C200" s="72"/>
       <c r="D200" s="73"/>
       <c r="E200" s="58"/>
@@ -16437,7 +16437,7 @@
     </row>
     <row r="201" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="58"/>
-      <c r="B201" s="104"/>
+      <c r="B201" s="83"/>
       <c r="C201" s="72"/>
       <c r="D201" s="73"/>
       <c r="E201" s="58"/>
@@ -16484,7 +16484,7 @@
     </row>
     <row r="202" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="58"/>
-      <c r="B202" s="104"/>
+      <c r="B202" s="83"/>
       <c r="C202" s="72"/>
       <c r="D202" s="73"/>
       <c r="E202" s="58"/>
@@ -16531,7 +16531,7 @@
     </row>
     <row r="203" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="58"/>
-      <c r="B203" s="104"/>
+      <c r="B203" s="83"/>
       <c r="C203" s="72"/>
       <c r="D203" s="73"/>
       <c r="E203" s="58"/>
@@ -16578,7 +16578,7 @@
     </row>
     <row r="204" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="58"/>
-      <c r="B204" s="104"/>
+      <c r="B204" s="83"/>
       <c r="C204" s="72"/>
       <c r="D204" s="73"/>
       <c r="E204" s="58"/>
@@ -16625,7 +16625,7 @@
     </row>
     <row r="205" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="58"/>
-      <c r="B205" s="104"/>
+      <c r="B205" s="83"/>
       <c r="C205" s="72"/>
       <c r="D205" s="73"/>
       <c r="E205" s="58"/>
@@ -16672,7 +16672,7 @@
     </row>
     <row r="206" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="58"/>
-      <c r="B206" s="104"/>
+      <c r="B206" s="83"/>
       <c r="C206" s="72"/>
       <c r="D206" s="73"/>
       <c r="E206" s="58"/>
@@ -16719,7 +16719,7 @@
     </row>
     <row r="207" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="58"/>
-      <c r="B207" s="104"/>
+      <c r="B207" s="83"/>
       <c r="C207" s="72"/>
       <c r="D207" s="73"/>
       <c r="E207" s="58"/>
@@ -16766,7 +16766,7 @@
     </row>
     <row r="208" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="58"/>
-      <c r="B208" s="104"/>
+      <c r="B208" s="83"/>
       <c r="C208" s="72"/>
       <c r="D208" s="73"/>
       <c r="E208" s="58"/>
@@ -16813,7 +16813,7 @@
     </row>
     <row r="209" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="58"/>
-      <c r="B209" s="104"/>
+      <c r="B209" s="83"/>
       <c r="C209" s="72"/>
       <c r="D209" s="73"/>
       <c r="E209" s="58"/>
@@ -16860,7 +16860,7 @@
     </row>
     <row r="210" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="58"/>
-      <c r="B210" s="104"/>
+      <c r="B210" s="83"/>
       <c r="C210" s="72"/>
       <c r="D210" s="73"/>
       <c r="E210" s="58"/>
@@ -16907,7 +16907,7 @@
     </row>
     <row r="211" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="58"/>
-      <c r="B211" s="104"/>
+      <c r="B211" s="83"/>
       <c r="C211" s="72"/>
       <c r="D211" s="73"/>
       <c r="E211" s="58"/>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="212" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="58"/>
-      <c r="B212" s="104"/>
+      <c r="B212" s="83"/>
       <c r="C212" s="72"/>
       <c r="D212" s="73"/>
       <c r="E212" s="58"/>
@@ -17001,7 +17001,7 @@
     </row>
     <row r="213" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="58"/>
-      <c r="B213" s="104"/>
+      <c r="B213" s="83"/>
       <c r="C213" s="72"/>
       <c r="D213" s="73"/>
       <c r="E213" s="58"/>
@@ -17048,7 +17048,7 @@
     </row>
     <row r="214" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="58"/>
-      <c r="B214" s="104"/>
+      <c r="B214" s="83"/>
       <c r="C214" s="72"/>
       <c r="D214" s="73"/>
       <c r="E214" s="58"/>
@@ -17095,7 +17095,7 @@
     </row>
     <row r="215" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="58"/>
-      <c r="B215" s="104"/>
+      <c r="B215" s="83"/>
       <c r="C215" s="72"/>
       <c r="D215" s="73"/>
       <c r="E215" s="58"/>
@@ -17142,7 +17142,7 @@
     </row>
     <row r="216" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="58"/>
-      <c r="B216" s="104"/>
+      <c r="B216" s="83"/>
       <c r="C216" s="72"/>
       <c r="D216" s="73"/>
       <c r="E216" s="58"/>
@@ -17189,7 +17189,7 @@
     </row>
     <row r="217" spans="1:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="58"/>
-      <c r="B217" s="104"/>
+      <c r="B217" s="83"/>
       <c r="C217" s="72"/>
       <c r="D217" s="73"/>
       <c r="E217" s="58"/>
@@ -19239,6 +19239,192 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="210">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="H8:N9"/>
+    <mergeCell ref="AC8:AH9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="B210:D210"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="B214:D214"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B182:D182"/>
     <mergeCell ref="B201:D201"/>
     <mergeCell ref="B202:D202"/>
     <mergeCell ref="B203:D203"/>
@@ -19263,192 +19449,6 @@
     <mergeCell ref="B186:D186"/>
     <mergeCell ref="B187:D187"/>
     <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B189:D189"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B175:D175"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="B178:D178"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="B216:D216"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="B210:D210"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B212:D212"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="B214:D214"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B155:D155"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="B215:D215"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B160:D160"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="B165:D165"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H8:N9"/>
-    <mergeCell ref="AC8:AH9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:AK4">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
